--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kelas\Semester 4\Pengembangan Perangkat Lunak Tangkas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kelas\Semester 4\Pengembangan Perangkat Lunak Tangkas\uts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,10 +110,10 @@
     <t>Estimation (H)</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
 </sst>
 </file>
@@ -202,9 +202,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,6 +209,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,11 +548,11 @@
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="90" x14ac:dyDescent="0.25">
@@ -568,11 +568,11 @@
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="75" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -608,11 +608,11 @@
       <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="60" x14ac:dyDescent="0.25">
@@ -628,11 +628,11 @@
       <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="90" x14ac:dyDescent="0.25">
@@ -648,11 +648,11 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="105" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -688,23 +688,23 @@
       <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="3">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
